--- a/10_alphafold_analysis/AF3_new_test_data.xlsx
+++ b/10_alphafold_analysis/AF3_new_test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Manuscripts/2025/MAMP_Prediction/Figures/Figure4/Figure4ef/AF3_new_test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="609" documentId="8_{FEF538B2-1593-C448-8EC7-3EDDBF7DFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8608DFFC-FD0C-B64C-9720-A4992E7E1297}"/>
+  <xr:revisionPtr revIDLastSave="983" documentId="8_{FEF538B2-1593-C448-8EC7-3EDDBF7DFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEE645D-3FC0-624F-9D62-0BA2990C5B1E}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="500" windowWidth="21060" windowHeight="19560" xr2:uid="{ADA0C2E5-2BE5-924D-A168-951FD144A553}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="26720" windowHeight="19540" activeTab="1" xr2:uid="{ADA0C2E5-2BE5-924D-A168-951FD144A553}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AF3" sheetId="1" r:id="rId1"/>
+    <sheet name="Chai-1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="287">
   <si>
     <t>Plant species</t>
   </si>
@@ -836,9 +837,6 @@
     <t>LA1353</t>
   </si>
   <si>
-    <t>Solanum habrochates</t>
-  </si>
-  <si>
     <t>scaffold11</t>
   </si>
   <si>
@@ -885,6 +883,21 @@
   </si>
   <si>
     <t>FLNVLKLQNNSFSGEIPSEIGYLHKLNVLRLDNNSFTGHIPSNISGCFNLVSVGLSYNMMVGEIPAELGTLLKLKQLSLVSNYLTGGIPLSFGNLSLLDTFSASKNNLLGKIPDELCQLLNLKYFVVNENNLSSTLPPCLFNLSSIVAIDVGTNHLEGQLPPLLGITLPKLEFLSIYRNNVTGNIPGTLSNATNLQSLVAGRNGLTGKVPLLGNLLKMRRFLVAFNDLGKEEEDDLSFLSTLVNATNLELVELNTNNFGGVLPASVSNLSTELIELSLSYNQVSGEIPRGISNLKKLQAFFVAYNRLHGEIPSEIGDLIYLQELALLGNQFSGQIPISLGNLASLTKLNLRENNLQGRIPSSLGKCDKLELLDLGSNNLSGFIPSEILELSSLSEGVDLSQNHLTGFLPMGIGKLRNLGYLNLSDNKLQGQVPATIGTCVKLEALDLNNNNFQGSIPSTMNNLRGLEFLVLSHNNLSGGIPGFLKDFKFLQILNLSSNNLEGAVPTGGIFSNATAVSIIGNKNL</t>
+  </si>
+  <si>
+    <t>Solanum habrochaites</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>VC128</t>
+  </si>
+  <si>
+    <t>VC129</t>
+  </si>
+  <si>
+    <t>VC130</t>
   </si>
 </sst>
 </file>
@@ -979,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,7 +1012,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1010,10 +1022,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1332,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6308E080-5317-D041-B6EF-5DC04FFC195D}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1369,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -1641,7 +1653,7 @@
         <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="J8" s="6">
         <v>0.89</v>
@@ -1983,7 +1995,7 @@
         <v>91</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="J17" s="6">
         <v>0.89</v>
@@ -1992,7 +2004,7 @@
         <v>0.51</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2211,7 +2223,7 @@
         <v>96</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="J23" s="6">
         <v>0.89</v>
@@ -2400,14 +2412,18 @@
       <c r="H28" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J28" s="6">
         <v>0.9</v>
       </c>
       <c r="K28" s="6">
         <v>0.52</v>
       </c>
-      <c r="L28" s="9"/>
+      <c r="L28" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -2890,14 +2906,18 @@
       <c r="H41" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="J41" s="6">
         <v>0.88</v>
       </c>
       <c r="K41" s="6">
         <v>0.39</v>
       </c>
-      <c r="L41" s="9"/>
+      <c r="L41" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -2960,7 +2980,7 @@
         <v>195</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>130</v>
@@ -3340,7 +3360,7 @@
         <v>196</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>131</v>
@@ -3416,7 +3436,7 @@
         <v>197</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>131</v>
@@ -3530,16 +3550,20 @@
         <v>198</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I58" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="J58" s="6">
         <v>0.89</v>
       </c>
       <c r="K58" s="6">
         <v>0.49</v>
       </c>
-      <c r="L58" s="7"/>
+      <c r="L58" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
@@ -3751,19 +3775,23 @@
         <v>19</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="I64" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J64" s="6">
         <v>0.89</v>
       </c>
       <c r="K64" s="6">
         <v>0.51</v>
       </c>
-      <c r="L64" s="7"/>
+      <c r="L64" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
@@ -3785,56 +3813,60 @@
         <v>19</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I65" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="J65" s="6">
         <v>0.88</v>
       </c>
       <c r="K65" s="6">
         <v>0.41</v>
       </c>
-      <c r="L65" s="7"/>
+      <c r="L65" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="I66" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="J66" s="10">
+      <c r="B66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J66" s="9">
         <v>0.89</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="9">
         <v>0.37</v>
       </c>
-      <c r="L66" s="14" t="s">
-        <v>189</v>
+      <c r="L66" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -3842,7 +3874,7 @@
         <v>206</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>265</v>
@@ -3851,10 +3883,10 @@
         <v>8</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>23</v>
@@ -3871,7 +3903,7 @@
       <c r="K67" s="6">
         <v>0.47</v>
       </c>
-      <c r="L67" s="15" t="s">
+      <c r="L67" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3880,7 +3912,7 @@
         <v>207</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>265</v>
@@ -3889,10 +3921,10 @@
         <v>8</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>24</v>
@@ -3909,7 +3941,7 @@
       <c r="K68" s="6">
         <v>0.53</v>
       </c>
-      <c r="L68" s="15" t="s">
+      <c r="L68" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3918,7 +3950,7 @@
         <v>208</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>265</v>
@@ -3927,10 +3959,10 @@
         <v>8</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>25</v>
@@ -3938,12 +3970,17 @@
       <c r="H69" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="J69" s="6">
         <v>0.9</v>
       </c>
       <c r="K69" s="6">
         <v>0.39</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -3951,7 +3988,7 @@
         <v>209</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>265</v>
@@ -3960,10 +3997,10 @@
         <v>8</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>26</v>
@@ -3971,12 +4008,17 @@
       <c r="H70" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="J70" s="6">
         <v>0.9</v>
       </c>
       <c r="K70" s="6">
         <v>0.37</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -3984,7 +4026,7 @@
         <v>210</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>265</v>
@@ -3993,10 +4035,10 @@
         <v>8</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>27</v>
@@ -4013,7 +4055,7 @@
       <c r="K71" s="6">
         <v>0.38</v>
       </c>
-      <c r="L71" s="15" t="s">
+      <c r="L71" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4022,7 +4064,7 @@
         <v>211</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>265</v>
@@ -4031,10 +4073,10 @@
         <v>8</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>28</v>
@@ -4051,7 +4093,7 @@
       <c r="K72" s="6">
         <v>0.46</v>
       </c>
-      <c r="L72" s="15" t="s">
+      <c r="L72" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4060,7 +4102,7 @@
         <v>212</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>265</v>
@@ -4069,10 +4111,10 @@
         <v>8</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>29</v>
@@ -4080,12 +4122,17 @@
       <c r="H73" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="J73" s="6">
         <v>0.89</v>
       </c>
       <c r="K73" s="6">
         <v>0.36</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -4093,7 +4140,7 @@
         <v>213</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>265</v>
@@ -4102,10 +4149,10 @@
         <v>8</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>30</v>
@@ -4113,7 +4160,9 @@
       <c r="H74" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="J74" s="6">
         <v>0.9</v>
       </c>
@@ -4126,7 +4175,7 @@
         <v>214</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>265</v>
@@ -4135,10 +4184,10 @@
         <v>8</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>31</v>
@@ -4164,7 +4213,7 @@
         <v>215</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>265</v>
@@ -4173,10 +4222,10 @@
         <v>8</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>32</v>
@@ -4184,11 +4233,17 @@
       <c r="H76" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="I76" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J76" s="6">
         <v>0.9</v>
       </c>
       <c r="K76" s="6">
         <v>0.44</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -4196,7 +4251,7 @@
         <v>216</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>265</v>
@@ -4205,10 +4260,10 @@
         <v>8</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>33</v>
@@ -4234,7 +4289,7 @@
         <v>217</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>265</v>
@@ -4243,10 +4298,10 @@
         <v>8</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>34</v>
@@ -4254,11 +4309,17 @@
       <c r="H78" s="5" t="s">
         <v>87</v>
       </c>
+      <c r="I78" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J78" s="6">
         <v>0.91</v>
       </c>
       <c r="K78" s="6">
         <v>0.51</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -4266,7 +4327,7 @@
         <v>218</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>265</v>
@@ -4275,15 +4336,15 @@
         <v>8</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="14" t="s">
         <v>88</v>
       </c>
       <c r="I79" s="5" t="s">
@@ -4304,7 +4365,7 @@
         <v>219</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>265</v>
@@ -4313,15 +4374,15 @@
         <v>8</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="14" t="s">
         <v>89</v>
       </c>
       <c r="I80" s="5" t="s">
@@ -4342,7 +4403,7 @@
         <v>220</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>265</v>
@@ -4351,15 +4412,15 @@
         <v>8</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I81" s="5" t="s">
@@ -4380,7 +4441,7 @@
         <v>221</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>265</v>
@@ -4389,16 +4450,19 @@
         <v>8</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="14" t="s">
         <v>91</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J82" s="6">
         <v>0.9</v>
@@ -4412,7 +4476,7 @@
         <v>222</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>265</v>
@@ -4421,15 +4485,15 @@
         <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="14" t="s">
         <v>191</v>
       </c>
       <c r="I83" s="5" t="s">
@@ -4450,7 +4514,7 @@
         <v>223</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>265</v>
@@ -4459,15 +4523,15 @@
         <v>8</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="14" t="s">
         <v>92</v>
       </c>
       <c r="I84" s="5" t="s">
@@ -4488,7 +4552,7 @@
         <v>224</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>265</v>
@@ -4497,22 +4561,28 @@
         <v>8</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="14" t="s">
         <v>93</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="J85" s="6">
         <v>0.91</v>
       </c>
       <c r="K85" s="6">
         <v>0.49</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -4520,7 +4590,7 @@
         <v>225</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>265</v>
@@ -4529,15 +4599,15 @@
         <v>8</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="14" t="s">
         <v>94</v>
       </c>
       <c r="I86" s="5" t="s">
@@ -4558,7 +4628,7 @@
         <v>226</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>265</v>
@@ -4567,15 +4637,15 @@
         <v>8</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="14" t="s">
         <v>95</v>
       </c>
       <c r="I87" s="5" t="s">
@@ -4596,7 +4666,7 @@
         <v>227</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>265</v>
@@ -4605,22 +4675,28 @@
         <v>8</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="14" t="s">
         <v>96</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="J88" s="6">
         <v>0.89</v>
       </c>
       <c r="K88" s="6">
         <v>0.42</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4628,7 +4704,7 @@
         <v>228</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>265</v>
@@ -4637,22 +4713,28 @@
         <v>8</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="14" t="s">
         <v>97</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="J89" s="6">
         <v>0.9</v>
       </c>
       <c r="K89" s="6">
         <v>0.44</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -4660,7 +4742,7 @@
         <v>229</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>265</v>
@@ -4669,22 +4751,28 @@
         <v>8</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="14" t="s">
         <v>98</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="J90" s="6">
         <v>0.9</v>
       </c>
       <c r="K90" s="6">
         <v>0.54</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4692,7 +4780,7 @@
         <v>230</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>265</v>
@@ -4701,22 +4789,28 @@
         <v>8</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="14" t="s">
         <v>99</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="J91" s="6">
         <v>0.91</v>
       </c>
       <c r="K91" s="6">
         <v>0.42</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4724,7 +4818,7 @@
         <v>231</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>265</v>
@@ -4733,16 +4827,19 @@
         <v>8</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="14" t="s">
         <v>100</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J92" s="6">
         <v>0.9</v>
@@ -4756,7 +4853,7 @@
         <v>232</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>265</v>
@@ -4765,22 +4862,28 @@
         <v>8</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="14" t="s">
         <v>192</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="J93" s="6">
         <v>0.91</v>
       </c>
       <c r="K93" s="6">
         <v>0.68</v>
+      </c>
+      <c r="L93" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -4788,7 +4891,7 @@
         <v>233</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>265</v>
@@ -4797,15 +4900,15 @@
         <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="14" t="s">
         <v>101</v>
       </c>
       <c r="I94" s="5" t="s">
@@ -4826,7 +4929,7 @@
         <v>234</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>265</v>
@@ -4835,22 +4938,28 @@
         <v>8</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="14" t="s">
         <v>102</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="J95" s="6">
         <v>0.9</v>
       </c>
       <c r="K95" s="6">
         <v>0.64</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -4858,7 +4967,7 @@
         <v>235</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>265</v>
@@ -4867,15 +4976,15 @@
         <v>8</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="14" t="s">
         <v>103</v>
       </c>
       <c r="I96" s="5" t="s">
@@ -4896,7 +5005,7 @@
         <v>236</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>265</v>
@@ -4905,15 +5014,15 @@
         <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="14" t="s">
         <v>104</v>
       </c>
       <c r="I97" s="5" t="s">
@@ -4934,7 +5043,7 @@
         <v>237</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>265</v>
@@ -4943,19 +5052,19 @@
         <v>8</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="14" t="s">
         <v>105</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="J98" s="6">
         <v>0.9</v>
@@ -4964,7 +5073,7 @@
         <v>0.48</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -4972,7 +5081,7 @@
         <v>238</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>265</v>
@@ -4981,15 +5090,15 @@
         <v>8</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="14" t="s">
         <v>106</v>
       </c>
       <c r="I99" s="5" t="s">
@@ -5010,7 +5119,7 @@
         <v>239</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>265</v>
@@ -5019,15 +5128,15 @@
         <v>8</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="14" t="s">
         <v>107</v>
       </c>
       <c r="I100" s="5" t="s">
@@ -5048,7 +5157,7 @@
         <v>240</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>265</v>
@@ -5057,16 +5166,19 @@
         <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="14" t="s">
         <v>108</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J101" s="6">
         <v>0.91</v>
@@ -5080,7 +5192,7 @@
         <v>241</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>265</v>
@@ -5089,15 +5201,15 @@
         <v>8</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="14" t="s">
         <v>109</v>
       </c>
       <c r="I102" s="5" t="s">
@@ -5110,7 +5222,7 @@
         <v>0.51</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5118,7 +5230,7 @@
         <v>242</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>265</v>
@@ -5127,15 +5239,15 @@
         <v>8</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="14" t="s">
         <v>110</v>
       </c>
       <c r="I103" s="5" t="s">
@@ -5148,7 +5260,7 @@
         <v>0.54</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5156,7 +5268,7 @@
         <v>243</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>265</v>
@@ -5165,15 +5277,15 @@
         <v>8</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="14" t="s">
         <v>193</v>
       </c>
       <c r="I104" s="5" t="s">
@@ -5186,7 +5298,7 @@
         <v>0.42</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5194,7 +5306,7 @@
         <v>244</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>265</v>
@@ -5203,22 +5315,28 @@
         <v>8</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="14" t="s">
         <v>111</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="J105" s="6">
         <v>0.92</v>
       </c>
       <c r="K105" s="6">
         <v>0.73</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5226,7 +5344,7 @@
         <v>245</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>265</v>
@@ -5235,16 +5353,19 @@
         <v>8</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="14" t="s">
         <v>194</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J106" s="6">
         <v>0.9</v>
@@ -5258,7 +5379,7 @@
         <v>246</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>265</v>
@@ -5267,16 +5388,19 @@
         <v>8</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="14" t="s">
         <v>112</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J107" s="6">
         <v>0.91</v>
@@ -5290,7 +5414,7 @@
         <v>247</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>265</v>
@@ -5299,16 +5423,16 @@
         <v>8</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H108" s="5" t="s">
-        <v>268</v>
+      <c r="H108" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>11</v>
@@ -5328,7 +5452,7 @@
         <v>248</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>265</v>
@@ -5337,15 +5461,15 @@
         <v>8</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="14" t="s">
         <v>113</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -5366,7 +5490,7 @@
         <v>249</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>265</v>
@@ -5375,19 +5499,19 @@
         <v>8</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="14" t="s">
         <v>114</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="J110" s="6">
         <v>0.9</v>
@@ -5404,7 +5528,7 @@
         <v>250</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>265</v>
@@ -5413,10 +5537,10 @@
         <v>8</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>62</v>
@@ -5442,7 +5566,7 @@
         <v>251</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>265</v>
@@ -5451,10 +5575,10 @@
         <v>8</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>63</v>
@@ -5480,7 +5604,7 @@
         <v>252</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>265</v>
@@ -5489,10 +5613,10 @@
         <v>8</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>64</v>
@@ -5501,7 +5625,7 @@
         <v>117</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J113" s="6">
         <v>0.9</v>
@@ -5510,7 +5634,7 @@
         <v>0.45</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -5518,7 +5642,7 @@
         <v>253</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>265</v>
@@ -5527,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>65</v>
@@ -5556,7 +5680,7 @@
         <v>254</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>265</v>
@@ -5565,10 +5689,10 @@
         <v>8</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>66</v>
@@ -5594,7 +5718,7 @@
         <v>255</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>265</v>
@@ -5603,10 +5727,10 @@
         <v>8</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>67</v>
@@ -5632,7 +5756,7 @@
         <v>256</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>265</v>
@@ -5641,10 +5765,10 @@
         <v>8</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>68</v>
@@ -5670,7 +5794,7 @@
         <v>257</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>265</v>
@@ -5679,16 +5803,16 @@
         <v>8</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>196</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I118" s="5" t="s">
         <v>131</v>
@@ -5708,7 +5832,7 @@
         <v>258</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>265</v>
@@ -5717,10 +5841,10 @@
         <v>8</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>69</v>
@@ -5746,7 +5870,7 @@
         <v>259</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>265</v>
@@ -5755,16 +5879,16 @@
         <v>8</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>197</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I120" s="5" t="s">
         <v>131</v>
@@ -5784,7 +5908,7 @@
         <v>260</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>265</v>
@@ -5793,10 +5917,10 @@
         <v>8</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>70</v>
@@ -5822,7 +5946,7 @@
         <v>261</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>265</v>
@@ -5831,10 +5955,10 @@
         <v>8</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>71</v>
@@ -5860,7 +5984,7 @@
         <v>262</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>265</v>
@@ -5869,22 +5993,28 @@
         <v>8</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>198</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="J123" s="6">
         <v>0.9</v>
       </c>
       <c r="K123" s="6">
         <v>0.62</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -5892,7 +6022,7 @@
         <v>263</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>265</v>
@@ -5901,10 +6031,10 @@
         <v>8</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>72</v>
@@ -5930,7 +6060,7 @@
         <v>264</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>265</v>
@@ -5939,10 +6069,10 @@
         <v>8</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>73</v>
@@ -5950,6 +6080,9 @@
       <c r="H125" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="I125" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="J125" s="6">
         <v>0.9</v>
       </c>
@@ -5959,10 +6092,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>265</v>
@@ -5971,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>74</v>
@@ -5982,6 +6115,9 @@
       <c r="H126" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="I126" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="J126" s="6">
         <v>0.91</v>
       </c>
@@ -5991,10 +6127,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>265</v>
@@ -6003,10 +6139,10 @@
         <v>8</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>75</v>
@@ -6029,10 +6165,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>265</v>
@@ -6041,10 +6177,10 @@
         <v>8</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>76</v>
@@ -6052,6 +6188,9 @@
       <c r="H128" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="I128" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="J128" s="6">
         <v>0.9</v>
       </c>
@@ -6061,28 +6200,28 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H129" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>11</v>
@@ -6099,10 +6238,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>265</v>
@@ -6111,16 +6250,19 @@
         <v>8</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="J130" s="6">
         <v>0.9</v>
@@ -6131,10 +6273,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>265</v>
@@ -6143,16 +6285,19 @@
         <v>8</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="J131" s="6">
         <v>0.9</v>
@@ -6160,6 +6305,4744 @@
       <c r="K131" s="6">
         <v>0.36</v>
       </c>
+      <c r="L131" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0BFFA9-DF9D-FC4F-B7CC-94C967530FE3}">
+  <dimension ref="A1:L131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E108" workbookViewId="0">
+      <selection activeCell="I131" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.9153</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.44409999999999999</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.45029999999999998</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.42170000000000002</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.9133</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.4118</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.4219</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.47020000000000001</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.9133</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.9143</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.34620000000000001</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.3926</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.3649</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.4783</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.42470000000000002</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.4531</v>
+      </c>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.38119999999999998</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0.9133</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.39760000000000001</v>
+      </c>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.4032</v>
+      </c>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0.91210000000000002</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.38290000000000002</v>
+      </c>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0.9153</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.3947</v>
+      </c>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0.41589999999999999</v>
+      </c>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.46629999999999999</v>
+      </c>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="L36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.3715</v>
+      </c>
+      <c r="L38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0.31080000000000002</v>
+      </c>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.4304</v>
+      </c>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.44379999999999997</v>
+      </c>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.3679</v>
+      </c>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.3876</v>
+      </c>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.3891</v>
+      </c>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.9123</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0.29549999999999998</v>
+      </c>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0.91090000000000004</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0.3997</v>
+      </c>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0.91910000000000003</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.40310000000000001</v>
+      </c>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.9143</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J62" s="6">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K62" s="6">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J63" s="6">
+        <v>0.91479999999999995</v>
+      </c>
+      <c r="K63" s="6">
+        <v>0.3296</v>
+      </c>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="K66" s="9">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0.37709999999999999</v>
+      </c>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0.35780000000000001</v>
+      </c>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0.4148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0.3861</v>
+      </c>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="6">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0.39350000000000002</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="6">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0.38890000000000002</v>
+      </c>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="6">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0.40749999999999997</v>
+      </c>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J79" s="6">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0.38679999999999998</v>
+      </c>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="6">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="K80" s="6">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0.37659999999999999</v>
+      </c>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="K82" s="6">
+        <v>0.38969999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="6">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0.39290000000000003</v>
+      </c>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0.9204</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0.37209999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="6">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0.46110000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="6">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="K95" s="6">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J97" s="6">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0.36459999999999998</v>
+      </c>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J99" s="6">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J101" s="6">
+        <v>0.91969999999999996</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0.40939999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="K102" s="6">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J103" s="6">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="K103" s="6">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J104" s="6">
+        <v>0.91349999999999998</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J105" s="6">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="K105" s="6">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="K106" s="6">
+        <v>0.34539999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J107" s="6">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="K107" s="6">
+        <v>0.29859999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0.3901</v>
+      </c>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J109" s="6">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="K109" s="6">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="K110" s="6">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J111" s="6">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="K111" s="6">
+        <v>0.50590000000000002</v>
+      </c>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="K112" s="6">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J113" s="6">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="K113" s="6">
+        <v>0.37809999999999999</v>
+      </c>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="K114" s="6">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J115" s="6">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="K115" s="6">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="K116" s="6">
+        <v>0.373</v>
+      </c>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J117" s="6">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="K117" s="6">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K118" s="6">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J119" s="6">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="K119" s="6">
+        <v>0.38929999999999998</v>
+      </c>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J120" s="6">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="K120" s="6">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J121" s="6">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="K121" s="6">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J122" s="6">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="K122" s="6">
+        <v>0.34010000000000001</v>
+      </c>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="K123" s="6">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" s="6">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K124" s="6">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J125" s="6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K125" s="6">
+        <v>0.3382</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J126" s="6">
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="K126" s="6">
+        <v>0.33389999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J127" s="6">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="K127" s="6">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J128" s="6">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="K128" s="6">
+        <v>0.3246</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" s="6">
+        <v>0.9194</v>
+      </c>
+      <c r="K129" s="6">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J130" s="6">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="K130" s="6">
+        <v>0.39069999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J131" s="6">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="K131" s="6">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="L131" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/10_alphafold_analysis/AF3_new_test_data.xlsx
+++ b/10_alphafold_analysis/AF3_new_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Manuscripts/2025/MAMP_Prediction/Figures/Figure4/Figure4ef/AF3_new_test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="983" documentId="8_{FEF538B2-1593-C448-8EC7-3EDDBF7DFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AEE645D-3FC0-624F-9D62-0BA2990C5B1E}"/>
+  <xr:revisionPtr revIDLastSave="1015" documentId="8_{FEF538B2-1593-C448-8EC7-3EDDBF7DFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CF0E03-CFB0-244D-B9C5-286BB0086976}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="500" windowWidth="26720" windowHeight="19540" activeTab="1" xr2:uid="{ADA0C2E5-2BE5-924D-A168-951FD144A553}"/>
+    <workbookView xWindow="6880" yWindow="500" windowWidth="26720" windowHeight="19540" xr2:uid="{ADA0C2E5-2BE5-924D-A168-951FD144A553}"/>
   </bookViews>
   <sheets>
     <sheet name="AF3" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="288">
   <si>
     <t>Plant species</t>
   </si>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>VC130</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -992,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,9 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6308E080-5317-D041-B6EF-5DC04FFC195D}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView tabSelected="1" topLeftCell="F95" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4169,6 +4169,9 @@
       <c r="K74" s="6">
         <v>0.41</v>
       </c>
+      <c r="L74" s="7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
@@ -4344,7 +4347,7 @@
       <c r="G79" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I79" s="5" t="s">
@@ -4382,7 +4385,7 @@
       <c r="G80" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="5" t="s">
         <v>89</v>
       </c>
       <c r="I80" s="5" t="s">
@@ -4420,7 +4423,7 @@
       <c r="G81" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I81" s="5" t="s">
@@ -4458,7 +4461,7 @@
       <c r="G82" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="5" t="s">
         <v>91</v>
       </c>
       <c r="I82" s="7" t="s">
@@ -4469,6 +4472,9 @@
       </c>
       <c r="K82" s="6">
         <v>0.46</v>
+      </c>
+      <c r="L82" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4493,7 +4499,7 @@
       <c r="G83" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I83" s="5" t="s">
@@ -4531,7 +4537,7 @@
       <c r="G84" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="5" t="s">
         <v>92</v>
       </c>
       <c r="I84" s="5" t="s">
@@ -4569,7 +4575,7 @@
       <c r="G85" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I85" s="5" t="s">
@@ -4607,7 +4613,7 @@
       <c r="G86" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="5" t="s">
         <v>94</v>
       </c>
       <c r="I86" s="5" t="s">
@@ -4645,7 +4651,7 @@
       <c r="G87" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H87" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I87" s="5" t="s">
@@ -4683,7 +4689,7 @@
       <c r="G88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I88" s="5" t="s">
@@ -4721,7 +4727,7 @@
       <c r="G89" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I89" s="5" t="s">
@@ -4759,7 +4765,7 @@
       <c r="G90" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I90" s="5" t="s">
@@ -4797,7 +4803,7 @@
       <c r="G91" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="5" t="s">
         <v>99</v>
       </c>
       <c r="I91" s="5" t="s">
@@ -4835,7 +4841,7 @@
       <c r="G92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="5" t="s">
         <v>100</v>
       </c>
       <c r="I92" s="7" t="s">
@@ -4846,6 +4852,9 @@
       </c>
       <c r="K92" s="6">
         <v>0.44</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4870,7 +4879,7 @@
       <c r="G93" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H93" s="5" t="s">
         <v>192</v>
       </c>
       <c r="I93" s="5" t="s">
@@ -4882,7 +4891,7 @@
       <c r="K93" s="6">
         <v>0.68</v>
       </c>
-      <c r="L93" t="s">
+      <c r="L93" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4908,7 +4917,7 @@
       <c r="G94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="5" t="s">
         <v>101</v>
       </c>
       <c r="I94" s="5" t="s">
@@ -4946,7 +4955,7 @@
       <c r="G95" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H95" s="14" t="s">
+      <c r="H95" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I95" s="5" t="s">
@@ -4984,7 +4993,7 @@
       <c r="G96" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="5" t="s">
         <v>103</v>
       </c>
       <c r="I96" s="5" t="s">
@@ -5022,7 +5031,7 @@
       <c r="G97" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="5" t="s">
         <v>104</v>
       </c>
       <c r="I97" s="5" t="s">
@@ -5060,7 +5069,7 @@
       <c r="G98" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H98" s="14" t="s">
+      <c r="H98" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I98" s="5" t="s">
@@ -5073,7 +5082,7 @@
         <v>0.48</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -5098,7 +5107,7 @@
       <c r="G99" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="14" t="s">
+      <c r="H99" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I99" s="5" t="s">
@@ -5136,7 +5145,7 @@
       <c r="G100" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="5" t="s">
         <v>107</v>
       </c>
       <c r="I100" s="5" t="s">
@@ -5174,7 +5183,7 @@
       <c r="G101" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="14" t="s">
+      <c r="H101" s="5" t="s">
         <v>108</v>
       </c>
       <c r="I101" s="7" t="s">
@@ -5185,6 +5194,9 @@
       </c>
       <c r="K101" s="6">
         <v>0.76</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -5209,7 +5221,7 @@
       <c r="G102" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I102" s="5" t="s">
@@ -5247,7 +5259,7 @@
       <c r="G103" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I103" s="5" t="s">
@@ -5285,7 +5297,7 @@
       <c r="G104" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="5" t="s">
         <v>193</v>
       </c>
       <c r="I104" s="5" t="s">
@@ -5323,7 +5335,7 @@
       <c r="G105" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="5" t="s">
         <v>111</v>
       </c>
       <c r="I105" s="5" t="s">
@@ -5361,7 +5373,7 @@
       <c r="G106" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I106" s="7" t="s">
@@ -5372,6 +5384,9 @@
       </c>
       <c r="K106" s="6">
         <v>0.52</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -5396,7 +5411,7 @@
       <c r="G107" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="5" t="s">
         <v>112</v>
       </c>
       <c r="I107" s="7" t="s">
@@ -5407,6 +5422,9 @@
       </c>
       <c r="K107" s="6">
         <v>0.7</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5431,7 +5449,7 @@
       <c r="G108" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="5" t="s">
         <v>267</v>
       </c>
       <c r="I108" s="5" t="s">
@@ -5469,7 +5487,7 @@
       <c r="G109" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I109" s="5" t="s">
@@ -5507,7 +5525,7 @@
       <c r="G110" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H110" s="14" t="s">
+      <c r="H110" s="5" t="s">
         <v>114</v>
       </c>
       <c r="I110" s="5" t="s">
@@ -6089,6 +6107,9 @@
       <c r="K125" s="6">
         <v>0.49</v>
       </c>
+      <c r="L125" s="7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
@@ -6124,6 +6145,9 @@
       <c r="K126" s="6">
         <v>0.56999999999999995</v>
       </c>
+      <c r="L126" s="7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
@@ -6197,6 +6221,9 @@
       <c r="K128" s="6">
         <v>0.45</v>
       </c>
+      <c r="L128" s="7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
@@ -6269,6 +6296,9 @@
       </c>
       <c r="K130" s="6">
         <v>0.39</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -6320,8 +6350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0BFFA9-DF9D-FC4F-B7CC-94C967530FE3}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E108" workbookViewId="0">
-      <selection activeCell="I131" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6409,7 +6439,9 @@
       <c r="K2" s="6">
         <v>0.44409999999999999</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -6445,7 +6477,9 @@
       <c r="K3" s="6">
         <v>0.45029999999999998</v>
       </c>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -6481,7 +6515,9 @@
       <c r="K4" s="6">
         <v>0.43390000000000001</v>
       </c>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -6517,7 +6553,9 @@
       <c r="K5" s="6">
         <v>0.42170000000000002</v>
       </c>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -6553,7 +6591,9 @@
       <c r="K6" s="6">
         <v>0.47420000000000001</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
@@ -6589,7 +6629,9 @@
       <c r="K7" s="6">
         <v>0.4118</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -6625,7 +6667,9 @@
       <c r="K8" s="6">
         <v>0.4219</v>
       </c>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -6661,7 +6705,9 @@
       <c r="K9" s="6">
         <v>0.47020000000000001</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -6697,7 +6743,9 @@
       <c r="K10" s="6">
         <v>0.40250000000000002</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
@@ -6733,7 +6781,9 @@
       <c r="K11" s="6">
         <v>0.39100000000000001</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
@@ -6769,7 +6819,9 @@
       <c r="K12" s="6">
         <v>0.43180000000000002</v>
       </c>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
@@ -6805,7 +6857,9 @@
       <c r="K13" s="6">
         <v>0.42849999999999999</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
@@ -6841,7 +6895,9 @@
       <c r="K14" s="6">
         <v>0.41049999999999998</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
@@ -6877,7 +6933,9 @@
       <c r="K15" s="6">
         <v>0.39729999999999999</v>
       </c>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -6913,7 +6971,9 @@
       <c r="K16" s="6">
         <v>0.34620000000000001</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
@@ -6949,7 +7009,9 @@
       <c r="K17" s="6">
         <v>0.3926</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -6985,7 +7047,9 @@
       <c r="K18" s="6">
         <v>0.3649</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -7021,7 +7085,9 @@
       <c r="K19" s="6">
         <v>0.4783</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
@@ -7057,7 +7123,9 @@
       <c r="K20" s="6">
         <v>0.42470000000000002</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
@@ -7093,7 +7161,9 @@
       <c r="K21" s="6">
         <v>0.4531</v>
       </c>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
@@ -7129,7 +7199,9 @@
       <c r="K22" s="6">
         <v>0.38119999999999998</v>
       </c>
-      <c r="L22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -7165,7 +7237,9 @@
       <c r="K23" s="6">
         <v>0.39760000000000001</v>
       </c>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -7201,7 +7275,9 @@
       <c r="K24" s="6">
         <v>0.4032</v>
       </c>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
@@ -7237,7 +7313,9 @@
       <c r="K25" s="6">
         <v>0.38290000000000002</v>
       </c>
-      <c r="L25" s="5"/>
+      <c r="L25" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
@@ -7273,7 +7351,9 @@
       <c r="K26" s="6">
         <v>0.43669999999999998</v>
       </c>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
@@ -7309,7 +7389,9 @@
       <c r="K27" s="6">
         <v>0.38080000000000003</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -7345,7 +7427,9 @@
       <c r="K28" s="6">
         <v>0.38750000000000001</v>
       </c>
-      <c r="L28" s="5"/>
+      <c r="L28" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -7381,7 +7465,9 @@
       <c r="K29" s="6">
         <v>0.38740000000000002</v>
       </c>
-      <c r="L29" s="5"/>
+      <c r="L29" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
@@ -7417,7 +7503,9 @@
       <c r="K30" s="6">
         <v>0.3947</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
@@ -7453,7 +7541,9 @@
       <c r="K31" s="6">
         <v>0.44330000000000003</v>
       </c>
-      <c r="L31" s="5"/>
+      <c r="L31" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
@@ -7489,7 +7579,9 @@
       <c r="K32" s="6">
         <v>0.41589999999999999</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
@@ -7525,7 +7617,9 @@
       <c r="K33" s="6">
         <v>0.41660000000000003</v>
       </c>
-      <c r="L33" s="5"/>
+      <c r="L33" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -7561,7 +7655,9 @@
       <c r="K34" s="6">
         <v>0.46629999999999999</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
@@ -7597,7 +7693,9 @@
       <c r="K35" s="6">
         <v>0.43519999999999998</v>
       </c>
-      <c r="L35" s="5"/>
+      <c r="L35" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
@@ -7633,7 +7731,9 @@
       <c r="K36" s="13">
         <v>0.42649999999999999</v>
       </c>
-      <c r="L36" s="5"/>
+      <c r="L36" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
@@ -7669,7 +7769,9 @@
       <c r="K37" s="6">
         <v>0.37769999999999998</v>
       </c>
-      <c r="L37" s="5"/>
+      <c r="L37" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
@@ -7705,7 +7807,9 @@
       <c r="K38" s="6">
         <v>0.3715</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="L38" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
@@ -7741,7 +7845,9 @@
       <c r="K39" s="6">
         <v>0.41010000000000002</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="L39" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
@@ -7777,7 +7883,9 @@
       <c r="K40" s="6">
         <v>0.31080000000000002</v>
       </c>
-      <c r="L40" s="5"/>
+      <c r="L40" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
@@ -7813,7 +7921,9 @@
       <c r="K41" s="6">
         <v>0.36030000000000001</v>
       </c>
-      <c r="L41" s="5"/>
+      <c r="L41" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
@@ -7849,7 +7959,9 @@
       <c r="K42" s="6">
         <v>0.36520000000000002</v>
       </c>
-      <c r="L42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
@@ -7885,7 +7997,9 @@
       <c r="K43" s="6">
         <v>0.4304</v>
       </c>
-      <c r="L43" s="5"/>
+      <c r="L43" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
@@ -7921,7 +8035,9 @@
       <c r="K44" s="6">
         <v>0.37769999999999998</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
@@ -7957,7 +8073,9 @@
       <c r="K45" s="6">
         <v>0.40339999999999998</v>
       </c>
-      <c r="L45" s="5"/>
+      <c r="L45" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
@@ -7993,7 +8111,9 @@
       <c r="K46" s="6">
         <v>0.44379999999999997</v>
       </c>
-      <c r="L46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -8029,7 +8149,9 @@
       <c r="K47" s="6">
         <v>0.38879999999999998</v>
       </c>
-      <c r="L47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -8065,7 +8187,9 @@
       <c r="K48" s="6">
         <v>0.37240000000000001</v>
       </c>
-      <c r="L48" s="5"/>
+      <c r="L48" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
@@ -8101,7 +8225,9 @@
       <c r="K49" s="6">
         <v>0.38890000000000002</v>
       </c>
-      <c r="L49" s="5"/>
+      <c r="L49" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
@@ -8137,7 +8263,9 @@
       <c r="K50" s="6">
         <v>0.3679</v>
       </c>
-      <c r="L50" s="5"/>
+      <c r="L50" s="5" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
@@ -8173,7 +8301,9 @@
       <c r="K51" s="6">
         <v>0.39739999999999998</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
@@ -8209,7 +8339,9 @@
       <c r="K52" s="6">
         <v>0.3876</v>
       </c>
-      <c r="L52" s="5"/>
+      <c r="L52" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
@@ -8245,7 +8377,9 @@
       <c r="K53" s="6">
         <v>0.3891</v>
       </c>
-      <c r="L53" s="5"/>
+      <c r="L53" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -8281,7 +8415,9 @@
       <c r="K54" s="6">
         <v>0.40510000000000002</v>
       </c>
-      <c r="L54" s="5"/>
+      <c r="L54" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -8317,7 +8453,9 @@
       <c r="K55" s="6">
         <v>0.29549999999999998</v>
       </c>
-      <c r="L55" s="5"/>
+      <c r="L55" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
@@ -9311,7 +9449,7 @@
       <c r="G83" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="5" t="s">
         <v>191</v>
       </c>
       <c r="I83" s="5" t="s">
@@ -9347,7 +9485,7 @@
       <c r="G84" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="5" t="s">
         <v>92</v>
       </c>
       <c r="I84" s="5" t="s">
@@ -9383,7 +9521,7 @@
       <c r="G85" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="5" t="s">
         <v>93</v>
       </c>
       <c r="I85" s="5" t="s">
@@ -9419,7 +9557,7 @@
       <c r="G86" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="5" t="s">
         <v>94</v>
       </c>
       <c r="I86" s="5" t="s">
@@ -9455,7 +9593,7 @@
       <c r="G87" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H87" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I87" s="5" t="s">
@@ -9491,7 +9629,7 @@
       <c r="G88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="5" t="s">
         <v>96</v>
       </c>
       <c r="I88" s="5" t="s">
@@ -9527,7 +9665,7 @@
       <c r="G89" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I89" s="5" t="s">
@@ -9563,7 +9701,7 @@
       <c r="G90" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I90" s="5" t="s">
@@ -9599,7 +9737,7 @@
       <c r="G91" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="5" t="s">
         <v>99</v>
       </c>
       <c r="I91" s="5" t="s">
@@ -9635,7 +9773,7 @@
       <c r="G92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="5" t="s">
         <v>100</v>
       </c>
       <c r="I92" s="7" t="s">
@@ -9670,7 +9808,7 @@
       <c r="G93" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H93" s="5" t="s">
         <v>192</v>
       </c>
       <c r="I93" s="5" t="s">
@@ -9705,7 +9843,7 @@
       <c r="G94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="5" t="s">
         <v>101</v>
       </c>
       <c r="I94" s="5" t="s">
@@ -9741,7 +9879,7 @@
       <c r="G95" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H95" s="14" t="s">
+      <c r="H95" s="5" t="s">
         <v>102</v>
       </c>
       <c r="I95" s="5" t="s">
@@ -9777,7 +9915,7 @@
       <c r="G96" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="5" t="s">
         <v>103</v>
       </c>
       <c r="I96" s="5" t="s">
@@ -9813,7 +9951,7 @@
       <c r="G97" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="5" t="s">
         <v>104</v>
       </c>
       <c r="I97" s="5" t="s">
@@ -9849,7 +9987,7 @@
       <c r="G98" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H98" s="14" t="s">
+      <c r="H98" s="5" t="s">
         <v>105</v>
       </c>
       <c r="I98" s="5" t="s">
@@ -9885,7 +10023,7 @@
       <c r="G99" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H99" s="14" t="s">
+      <c r="H99" s="5" t="s">
         <v>106</v>
       </c>
       <c r="I99" s="5" t="s">
@@ -9921,7 +10059,7 @@
       <c r="G100" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H100" s="14" t="s">
+      <c r="H100" s="5" t="s">
         <v>107</v>
       </c>
       <c r="I100" s="5" t="s">
@@ -9957,7 +10095,7 @@
       <c r="G101" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H101" s="14" t="s">
+      <c r="H101" s="5" t="s">
         <v>108</v>
       </c>
       <c r="I101" s="7" t="s">
@@ -9992,7 +10130,7 @@
       <c r="G102" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I102" s="5" t="s">
@@ -10028,7 +10166,7 @@
       <c r="G103" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I103" s="5" t="s">
@@ -10064,7 +10202,7 @@
       <c r="G104" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="5" t="s">
         <v>193</v>
       </c>
       <c r="I104" s="5" t="s">
@@ -10100,7 +10238,7 @@
       <c r="G105" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="5" t="s">
         <v>111</v>
       </c>
       <c r="I105" s="5" t="s">
@@ -10136,7 +10274,7 @@
       <c r="G106" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H106" s="14" t="s">
+      <c r="H106" s="5" t="s">
         <v>194</v>
       </c>
       <c r="I106" s="7" t="s">

--- a/10_alphafold_analysis/AF3_new_test_data.xlsx
+++ b/10_alphafold_analysis/AF3_new_test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Manuscripts/2025/MAMP_Prediction/Figures/Figure4/Figure4ef/AF3_new_test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1015" documentId="8_{FEF538B2-1593-C448-8EC7-3EDDBF7DFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14CF0E03-CFB0-244D-B9C5-286BB0086976}"/>
+  <xr:revisionPtr revIDLastSave="1058" documentId="8_{FEF538B2-1593-C448-8EC7-3EDDBF7DFDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F71CADC7-CE0A-B442-A3FE-34FE09CA52C6}"/>
   <bookViews>
     <workbookView xWindow="6880" yWindow="500" windowWidth="26720" windowHeight="19540" xr2:uid="{ADA0C2E5-2BE5-924D-A168-951FD144A553}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="289">
   <si>
     <t>Plant species</t>
   </si>
@@ -901,6 +901,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Non-Immunogenic</t>
   </si>
 </sst>
 </file>
@@ -1344,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6308E080-5317-D041-B6EF-5DC04FFC195D}">
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F95" workbookViewId="0">
-      <selection activeCell="L130" sqref="L130"/>
+    <sheetView tabSelected="1" topLeftCell="E88" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1957,7 +1960,7 @@
         <v>90</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J16" s="6">
         <v>0.89</v>
@@ -2147,7 +2150,7 @@
         <v>94</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J21" s="6">
         <v>0.9</v>
@@ -2337,7 +2340,7 @@
         <v>99</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J26" s="6">
         <v>0.89</v>
@@ -2793,7 +2796,7 @@
         <v>110</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J38" s="6">
         <v>0.89</v>
@@ -2831,7 +2834,7 @@
         <v>193</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J39" s="6">
         <v>0.89</v>
@@ -2869,7 +2872,7 @@
         <v>111</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J40" s="6">
         <v>0.89</v>
@@ -2907,7 +2910,7 @@
         <v>194</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J41" s="6">
         <v>0.88</v>
@@ -2945,7 +2948,7 @@
         <v>112</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J42" s="6">
         <v>0.89</v>
@@ -3097,7 +3100,7 @@
         <v>115</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J46" s="6">
         <v>0.88</v>
@@ -3135,7 +3138,7 @@
         <v>116</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J47" s="6">
         <v>0.88</v>
@@ -3173,7 +3176,7 @@
         <v>117</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J48" s="6">
         <v>0.89</v>
@@ -3211,7 +3214,7 @@
         <v>118</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J49" s="6">
         <v>0.89</v>
@@ -3287,7 +3290,7 @@
         <v>120</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J51" s="6">
         <v>0.89</v>
@@ -3325,7 +3328,7 @@
         <v>121</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J52" s="6">
         <v>0.89</v>
@@ -3363,7 +3366,7 @@
         <v>268</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J53" s="6">
         <v>0.89</v>
@@ -3401,7 +3404,7 @@
         <v>122</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J54" s="6">
         <v>0.89</v>
@@ -3439,7 +3442,7 @@
         <v>269</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J55" s="6">
         <v>0.89</v>
@@ -3515,7 +3518,7 @@
         <v>124</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J57" s="6">
         <v>0.89</v>
@@ -3553,7 +3556,7 @@
         <v>270</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J58" s="6">
         <v>0.89</v>
@@ -3629,7 +3632,7 @@
         <v>126</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J60" s="6">
         <v>0.9</v>
@@ -3667,7 +3670,7 @@
         <v>127</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J61" s="6">
         <v>0.88</v>
@@ -3705,7 +3708,7 @@
         <v>128</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J62" s="6">
         <v>0.89</v>
@@ -3743,7 +3746,7 @@
         <v>129</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J63" s="6">
         <v>0.88</v>
@@ -3856,8 +3859,8 @@
       <c r="H66" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="I66" s="12" t="s">
-        <v>131</v>
+      <c r="I66" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="J66" s="9">
         <v>0.89</v>
@@ -4427,7 +4430,7 @@
         <v>90</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J81" s="6">
         <v>0.91</v>
@@ -4541,7 +4544,7 @@
         <v>92</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J84" s="6">
         <v>0.91</v>
@@ -5225,7 +5228,7 @@
         <v>109</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J102" s="6">
         <v>0.91</v>
@@ -5263,7 +5266,7 @@
         <v>110</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J103" s="6">
         <v>0.91</v>
@@ -5301,7 +5304,7 @@
         <v>193</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J104" s="6">
         <v>0.89</v>
@@ -5339,7 +5342,7 @@
         <v>111</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J105" s="6">
         <v>0.92</v>
@@ -5491,7 +5494,7 @@
         <v>113</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J109" s="6">
         <v>0.91</v>
@@ -5567,7 +5570,7 @@
         <v>115</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J111" s="6">
         <v>0.89</v>
@@ -5681,7 +5684,7 @@
         <v>118</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J114" s="6">
         <v>0.9</v>
@@ -5719,7 +5722,7 @@
         <v>119</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J115" s="6">
         <v>0.9</v>
@@ -5757,7 +5760,7 @@
         <v>120</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J116" s="6">
         <v>0.9</v>
@@ -5795,7 +5798,7 @@
         <v>121</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J117" s="6">
         <v>0.9</v>
@@ -5833,7 +5836,7 @@
         <v>268</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J118" s="6">
         <v>0.91</v>
@@ -5871,7 +5874,7 @@
         <v>122</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J119" s="6">
         <v>0.9</v>
@@ -5909,7 +5912,7 @@
         <v>269</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J120" s="6">
         <v>0.91</v>
@@ -5947,7 +5950,7 @@
         <v>123</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J121" s="6">
         <v>0.9</v>
@@ -5985,7 +5988,7 @@
         <v>124</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J122" s="6">
         <v>0.91</v>
@@ -6175,7 +6178,7 @@
         <v>128</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J127" s="6">
         <v>0.9</v>
@@ -6327,7 +6330,7 @@
         <v>279</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="J131" s="6">
         <v>0.9</v>
